--- a/app/Licenciatura_em_Economia_Agraria.xlsx
+++ b/app/Licenciatura_em_Economia_Agraria.xlsx
@@ -28,20 +28,19 @@
     <sheet name="20151391" sheetId="18" r:id="rId21"/>
     <sheet name="20151383" sheetId="19" r:id="rId22"/>
     <sheet name="20151393" sheetId="20" r:id="rId23"/>
-    <sheet name="20154419" sheetId="21" r:id="rId24"/>
-    <sheet name="20151384" sheetId="22" r:id="rId25"/>
-    <sheet name="20151385" sheetId="23" r:id="rId26"/>
-    <sheet name="20151382" sheetId="24" r:id="rId27"/>
-    <sheet name="20151376" sheetId="25" r:id="rId28"/>
-    <sheet name="20151386" sheetId="26" r:id="rId29"/>
-    <sheet name="20151378" sheetId="27" r:id="rId30"/>
-    <sheet name="20151374" sheetId="28" r:id="rId31"/>
-    <sheet name="20151396" sheetId="29" r:id="rId32"/>
-    <sheet name="20151370" sheetId="30" r:id="rId33"/>
-    <sheet name="20151380" sheetId="31" r:id="rId34"/>
-    <sheet name="20151379" sheetId="32" r:id="rId35"/>
-    <sheet name="Sheet2" sheetId="33" r:id="rId36"/>
-    <sheet name="Sheet3" sheetId="34" r:id="rId37"/>
+    <sheet name="20151384" sheetId="21" r:id="rId24"/>
+    <sheet name="20151385" sheetId="22" r:id="rId25"/>
+    <sheet name="20151382" sheetId="23" r:id="rId26"/>
+    <sheet name="20151376" sheetId="24" r:id="rId27"/>
+    <sheet name="20151386" sheetId="25" r:id="rId28"/>
+    <sheet name="20151378" sheetId="26" r:id="rId29"/>
+    <sheet name="20151374" sheetId="27" r:id="rId30"/>
+    <sheet name="20151396" sheetId="28" r:id="rId31"/>
+    <sheet name="20151370" sheetId="29" r:id="rId32"/>
+    <sheet name="20151380" sheetId="30" r:id="rId33"/>
+    <sheet name="20151379" sheetId="31" r:id="rId34"/>
+    <sheet name="Sheet2" sheetId="32" r:id="rId35"/>
+    <sheet name="Sheet3" sheetId="33" r:id="rId36"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" calcMode="auto" fullCalcOnLoad="0"/>
@@ -49,7 +48,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="284">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="267">
   <si>
     <t>UNIVERSIDADE EDUARDO MONDLANE</t>
   </si>
@@ -198,9 +197,6 @@
     <t>Gilda Miranhane Cumbe</t>
   </si>
   <si>
-    <t>Distrito de Vilanculos</t>
-  </si>
-  <si>
     <t>Feminino</t>
   </si>
   <si>
@@ -237,9 +233,6 @@
     <t>Maria Genoveva Bande</t>
   </si>
   <si>
-    <t>Cidade de Inhambane</t>
-  </si>
-  <si>
     <t>080100036639C</t>
   </si>
   <si>
@@ -264,9 +257,6 @@
     <t>Olivia  Alfiado Machel</t>
   </si>
   <si>
-    <t>Distrito de Massinga</t>
-  </si>
-  <si>
     <t>Masculino</t>
   </si>
   <si>
@@ -294,9 +284,6 @@
     <t>Maria Felicidade</t>
   </si>
   <si>
-    <t>Distrito de Mavalane</t>
-  </si>
-  <si>
     <t>Cartao de Eleitor</t>
   </si>
   <si>
@@ -345,9 +332,6 @@
     <t>Adelina Rosalina Macuacua</t>
   </si>
   <si>
-    <t>Distrito Municipal Kamaxaquene</t>
-  </si>
-  <si>
     <t>110104494649B</t>
   </si>
   <si>
@@ -435,9 +419,6 @@
     <t>Cacilda Ernesto Mapanzene</t>
   </si>
   <si>
-    <t>Distrito de Funhalouro</t>
-  </si>
-  <si>
     <t>080201039694S</t>
   </si>
   <si>
@@ -504,9 +485,6 @@
     <t>Alda Tangane Silimane</t>
   </si>
   <si>
-    <t>Cidade de Maxixe</t>
-  </si>
-  <si>
     <t>080102390734P</t>
   </si>
   <si>
@@ -591,9 +569,6 @@
     <t>Maria Domingos</t>
   </si>
   <si>
-    <t>Cidade de Beira</t>
-  </si>
-  <si>
     <t>070102556270J</t>
   </si>
   <si>
@@ -618,9 +593,6 @@
     <t>Amelia Fernando</t>
   </si>
   <si>
-    <t>Distrito Municipal de Kampfumo</t>
-  </si>
-  <si>
     <t>081101583970B</t>
   </si>
   <si>
@@ -642,9 +614,6 @@
     <t>Virginia Arlindo Matsena</t>
   </si>
   <si>
-    <t>Distrito de Inharrime</t>
-  </si>
-  <si>
     <t>Talao de Bilhete de Identificacao</t>
   </si>
   <si>
@@ -654,204 +623,189 @@
     <t>+258820667320</t>
   </si>
   <si>
-    <t>Cuinhane</t>
-  </si>
-  <si>
-    <t>Quissenia Eduardo</t>
+    <t>Cuambe</t>
+  </si>
+  <si>
+    <t>Anisio Antonieta</t>
+  </si>
+  <si>
+    <t>1996-09-16</t>
+  </si>
+  <si>
+    <t>Manuel Antonio</t>
+  </si>
+  <si>
+    <t>Antonieta Alfredo</t>
+  </si>
+  <si>
+    <t>090100411664B</t>
+  </si>
+  <si>
+    <t>+258847832958</t>
+  </si>
+  <si>
+    <t>Escola Secundaria do Xai-Xai</t>
+  </si>
+  <si>
+    <t>Cossa</t>
+  </si>
+  <si>
+    <t>Milton Da Silva</t>
+  </si>
+  <si>
+    <t>1997-07-07</t>
+  </si>
+  <si>
+    <t>Silva Rafael Cossa</t>
+  </si>
+  <si>
+    <t>Edita Ester Armando Maela</t>
+  </si>
+  <si>
+    <t>+258845148566</t>
+  </si>
+  <si>
+    <t>Escola Secundaria Quisse Mavota</t>
+  </si>
+  <si>
+    <t>Colomola</t>
+  </si>
+  <si>
+    <t>Vicente Elias SebastiÃo</t>
+  </si>
+  <si>
+    <t>1996-07-20</t>
+  </si>
+  <si>
+    <t>Elias SebastiÃo Colomola</t>
+  </si>
+  <si>
+    <t>Fernanda HermÍnio Amorane</t>
+  </si>
+  <si>
+    <t>030102153976J</t>
+  </si>
+  <si>
+    <t>+258845719065</t>
+  </si>
+  <si>
+    <t>Escola Secundaria de Nampula</t>
+  </si>
+  <si>
+    <t>Chongo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Alex Avelino Naftal </t>
+  </si>
+  <si>
+    <t>1989-02-18</t>
+  </si>
+  <si>
+    <t>Avelino Naftal Chongo</t>
+  </si>
+  <si>
+    <t>Floriana Janane Chibale</t>
+  </si>
+  <si>
+    <t>110100233223N</t>
+  </si>
+  <si>
+    <t>+258848862509</t>
+  </si>
+  <si>
+    <t>Chimusse</t>
+  </si>
+  <si>
+    <t>Celia Leonardo</t>
+  </si>
+  <si>
+    <t>1996-12-13</t>
+  </si>
+  <si>
+    <t>Leonardo Jossai Chimusse</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Florentina Jeremias </t>
+  </si>
+  <si>
+    <t xml:space="preserve">  80803496</t>
+  </si>
+  <si>
+    <t>+258822474174</t>
+  </si>
+  <si>
+    <t>Chilundo</t>
+  </si>
+  <si>
+    <t>Carcio Pedro</t>
+  </si>
+  <si>
+    <t>1996-09-20</t>
+  </si>
+  <si>
+    <t>Pedro Amosse Chilundo</t>
+  </si>
+  <si>
+    <t>Clara Machado Dos Santos</t>
+  </si>
+  <si>
+    <t>110102699671S</t>
+  </si>
+  <si>
+    <t>+258842322679</t>
+  </si>
+  <si>
+    <t>Escola Secundaria da Zona-Verde</t>
+  </si>
+  <si>
+    <t>Carlos Andre</t>
+  </si>
+  <si>
+    <t>Celso</t>
+  </si>
+  <si>
+    <t>1995-08-24</t>
+  </si>
+  <si>
+    <t>Marieta Pedro</t>
+  </si>
+  <si>
+    <t>030100904044B</t>
+  </si>
+  <si>
+    <t>+258820486954</t>
+  </si>
+  <si>
+    <t>Cangela</t>
+  </si>
+  <si>
+    <t>Ivanilda LourenÇo</t>
+  </si>
+  <si>
+    <t>1994-07-08</t>
+  </si>
+  <si>
+    <t>LourenÇo Cangela</t>
+  </si>
+  <si>
+    <t>Cacilda InÁcio Mense</t>
+  </si>
+  <si>
+    <t>080100841430C</t>
+  </si>
+  <si>
+    <t>+258842500540</t>
+  </si>
+  <si>
+    <t>Bande</t>
+  </si>
+  <si>
+    <t>Victoria Elias</t>
   </si>
   <si>
     <t>+</t>
   </si>
   <si>
-    <t>Cuambe</t>
-  </si>
-  <si>
-    <t>Anisio Antonieta</t>
-  </si>
-  <si>
-    <t>1996-09-16</t>
-  </si>
-  <si>
-    <t>Manuel Antonio</t>
-  </si>
-  <si>
-    <t>Antonieta Alfredo</t>
-  </si>
-  <si>
-    <t>Cidade de Xai-Xai</t>
-  </si>
-  <si>
-    <t>090100411664B</t>
-  </si>
-  <si>
-    <t>+258847832958</t>
-  </si>
-  <si>
-    <t>Escola Secundaria do Xai-Xai</t>
-  </si>
-  <si>
-    <t>Cossa</t>
-  </si>
-  <si>
-    <t>Milton Da Silva</t>
-  </si>
-  <si>
-    <t>1997-07-07</t>
-  </si>
-  <si>
-    <t>Silva Rafael Cossa</t>
-  </si>
-  <si>
-    <t>Edita Ester Armando Maela</t>
-  </si>
-  <si>
-    <t>Distrito Municipal Kamubukwana</t>
-  </si>
-  <si>
-    <t>+258845148566</t>
-  </si>
-  <si>
-    <t>Escola Secundaria Quisse Mavota</t>
-  </si>
-  <si>
-    <t>Colomola</t>
-  </si>
-  <si>
-    <t>Vicente Elias SebastiÃo</t>
-  </si>
-  <si>
-    <t>1996-07-20</t>
-  </si>
-  <si>
-    <t>Elias SebastiÃo Colomola</t>
-  </si>
-  <si>
-    <t>Fernanda HermÍnio Amorane</t>
-  </si>
-  <si>
-    <t>Cidade de Nampula</t>
-  </si>
-  <si>
-    <t>030102153976J</t>
-  </si>
-  <si>
-    <t>+258845719065</t>
-  </si>
-  <si>
-    <t>Escola Secundaria de Nampula</t>
-  </si>
-  <si>
-    <t>Chongo</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Alex Avelino Naftal </t>
-  </si>
-  <si>
-    <t>1989-02-18</t>
-  </si>
-  <si>
-    <t>Avelino Naftal Chongo</t>
-  </si>
-  <si>
-    <t>Floriana Janane Chibale</t>
-  </si>
-  <si>
-    <t>110100233223N</t>
-  </si>
-  <si>
-    <t>+258848862509</t>
-  </si>
-  <si>
-    <t>Chimusse</t>
-  </si>
-  <si>
-    <t>Celia Leonardo</t>
-  </si>
-  <si>
-    <t>1996-12-13</t>
-  </si>
-  <si>
-    <t>Leonardo Jossai Chimusse</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Florentina Jeremias </t>
-  </si>
-  <si>
-    <t xml:space="preserve">  80803496</t>
-  </si>
-  <si>
-    <t>+258822474174</t>
-  </si>
-  <si>
-    <t>Chilundo</t>
-  </si>
-  <si>
-    <t>Carcio Pedro</t>
-  </si>
-  <si>
-    <t>1996-09-20</t>
-  </si>
-  <si>
-    <t>Pedro Amosse Chilundo</t>
-  </si>
-  <si>
-    <t>Clara Machado Dos Santos</t>
-  </si>
-  <si>
-    <t>110102699671S</t>
-  </si>
-  <si>
-    <t>+258842322679</t>
-  </si>
-  <si>
-    <t>Escola Secundaria da Zona-Verde</t>
-  </si>
-  <si>
-    <t>Carlos Andre</t>
-  </si>
-  <si>
-    <t>Celso</t>
-  </si>
-  <si>
-    <t>1995-08-24</t>
-  </si>
-  <si>
-    <t>Marieta Pedro</t>
-  </si>
-  <si>
-    <t>030100904044B</t>
-  </si>
-  <si>
-    <t>+258820486954</t>
-  </si>
-  <si>
-    <t>Cangela</t>
-  </si>
-  <si>
-    <t>Ivanilda LourenÇo</t>
-  </si>
-  <si>
-    <t>1994-07-08</t>
-  </si>
-  <si>
-    <t>LourenÇo Cangela</t>
-  </si>
-  <si>
-    <t>Cacilda InÁcio Mense</t>
-  </si>
-  <si>
-    <t>080100841430C</t>
-  </si>
-  <si>
-    <t>+258842500540</t>
-  </si>
-  <si>
-    <t>Bande</t>
-  </si>
-  <si>
-    <t>Victoria Elias</t>
-  </si>
-  <si>
     <t>Alfandega</t>
   </si>
   <si>
@@ -867,9 +821,6 @@
     <t>Joana Jose Pedro</t>
   </si>
   <si>
-    <t>Cidade de Quelimane</t>
-  </si>
-  <si>
     <t>040100057760A</t>
   </si>
   <si>
@@ -892,9 +843,6 @@
   </si>
   <si>
     <t>Micaela Mudanisse Naife</t>
-  </si>
-  <si>
-    <t>Distrito de Morrumbene</t>
   </si>
   <si>
     <t>081104794274P</t>
@@ -2160,7 +2108,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>117</v>
+        <v>112</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -2176,7 +2124,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>118</v>
+        <v>113</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -2192,7 +2140,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>119</v>
+        <v>114</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -2208,7 +2156,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -2224,7 +2172,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>121</v>
+        <v>116</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -2239,9 +2187,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>49</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -2249,7 +2195,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -2260,7 +2206,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -2269,7 +2215,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -2281,7 +2227,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -2289,7 +2235,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -2385,7 +2331,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -2428,7 +2374,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -2755,7 +2701,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>117</v>
+        <v>112</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -2771,7 +2717,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>124</v>
+        <v>119</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -2787,7 +2733,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>125</v>
+        <v>120</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -2803,7 +2749,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -2819,7 +2765,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -2834,9 +2780,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>128</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -2844,7 +2788,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -2855,7 +2799,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -2864,7 +2808,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -2876,7 +2820,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -2884,7 +2828,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>129</v>
+        <v>123</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -2980,7 +2924,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>130</v>
+        <v>124</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -3023,7 +2967,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -3350,7 +3294,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>131</v>
+        <v>125</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -3366,7 +3310,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>132</v>
+        <v>126</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -3382,7 +3326,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>133</v>
+        <v>127</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -3398,7 +3342,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>134</v>
+        <v>128</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -3414,7 +3358,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>135</v>
+        <v>129</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -3429,9 +3373,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>62</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -3439,7 +3381,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -3450,7 +3392,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -3459,7 +3401,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -3471,7 +3413,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -3479,7 +3421,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>136</v>
+        <v>130</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -3575,7 +3517,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>137</v>
+        <v>131</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -3618,7 +3560,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>138</v>
+        <v>132</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -3945,7 +3887,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>139</v>
+        <v>133</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -3961,7 +3903,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>140</v>
+        <v>134</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -3977,7 +3919,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>141</v>
+        <v>135</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -3993,7 +3935,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>142</v>
+        <v>136</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -4009,7 +3951,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>143</v>
+        <v>137</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -4024,9 +3966,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>49</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -4034,7 +3974,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -4045,7 +3985,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -4054,7 +3994,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -4066,7 +4006,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -4074,7 +4014,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>144</v>
+        <v>138</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -4170,7 +4110,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>145</v>
+        <v>139</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -4213,7 +4153,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -4540,7 +4480,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>146</v>
+        <v>140</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -4556,7 +4496,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>147</v>
+        <v>141</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -4572,7 +4512,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>148</v>
+        <v>142</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -4588,7 +4528,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>149</v>
+        <v>143</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -4604,7 +4544,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>150</v>
+        <v>144</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -4619,9 +4559,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>151</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -4629,7 +4567,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -4640,7 +4578,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -4649,7 +4587,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -4661,7 +4599,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -4669,7 +4607,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>152</v>
+        <v>145</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -4765,7 +4703,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>153</v>
+        <v>146</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -4808,7 +4746,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -5135,7 +5073,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>154</v>
+        <v>147</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -5151,7 +5089,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>155</v>
+        <v>148</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -5167,7 +5105,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>156</v>
+        <v>149</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -5183,7 +5121,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>157</v>
+        <v>150</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -5199,7 +5137,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>158</v>
+        <v>151</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -5214,9 +5152,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>49</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -5224,7 +5160,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -5235,7 +5171,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -5244,7 +5180,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -5256,7 +5192,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -5264,7 +5200,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>159</v>
+        <v>152</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -5360,7 +5296,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>160</v>
+        <v>153</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -5403,7 +5339,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -5730,7 +5666,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>161</v>
+        <v>154</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -5746,7 +5682,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>162</v>
+        <v>155</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -5762,7 +5698,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>163</v>
+        <v>156</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -5778,7 +5714,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>164</v>
+        <v>157</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -5794,7 +5730,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>165</v>
+        <v>158</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -5809,9 +5745,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>62</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -5819,7 +5753,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -5830,7 +5764,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -5839,7 +5773,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -5851,7 +5785,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -5859,7 +5793,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>166</v>
+        <v>159</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -5955,7 +5889,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>167</v>
+        <v>160</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -5998,7 +5932,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -6325,7 +6259,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>168</v>
+        <v>161</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -6341,7 +6275,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>169</v>
+        <v>162</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -6357,7 +6291,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>170</v>
+        <v>163</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -6373,7 +6307,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>171</v>
+        <v>164</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -6389,7 +6323,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>172</v>
+        <v>165</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -6404,9 +6338,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>98</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -6414,7 +6346,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -6425,7 +6357,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -6434,7 +6366,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -6446,7 +6378,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -6454,7 +6386,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>173</v>
+        <v>166</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -6550,7 +6482,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>174</v>
+        <v>167</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -6593,7 +6525,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>175</v>
+        <v>168</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -6920,7 +6852,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>176</v>
+        <v>169</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -6936,7 +6868,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>177</v>
+        <v>170</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -6952,7 +6884,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>178</v>
+        <v>171</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -6968,7 +6900,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>177</v>
+        <v>170</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -6984,7 +6916,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>179</v>
+        <v>172</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -6999,9 +6931,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>180</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -7009,7 +6939,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -7020,7 +6950,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -7029,7 +6959,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -7041,7 +6971,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -7049,7 +6979,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>181</v>
+        <v>173</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -7145,7 +7075,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>182</v>
+        <v>174</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -7188,7 +7118,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>183</v>
+        <v>175</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -7515,7 +7445,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>184</v>
+        <v>176</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -7531,7 +7461,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>185</v>
+        <v>177</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -7547,7 +7477,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>186</v>
+        <v>178</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -7563,7 +7493,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>187</v>
+        <v>179</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -7579,7 +7509,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>188</v>
+        <v>180</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -7594,9 +7524,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>189</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -7604,7 +7532,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -7615,7 +7543,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -7624,7 +7552,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -7636,7 +7564,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -7644,7 +7572,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>190</v>
+        <v>181</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -7740,7 +7668,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>191</v>
+        <v>182</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -7783,7 +7711,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>192</v>
+        <v>183</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -8189,9 +8117,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>49</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -8199,7 +8125,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -8210,7 +8136,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -8219,7 +8145,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -8231,7 +8157,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -8239,7 +8165,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -8335,7 +8261,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -8378,7 +8304,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -8705,7 +8631,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>184</v>
+        <v>176</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -8721,7 +8647,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>193</v>
+        <v>184</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -8737,7 +8663,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>194</v>
+        <v>185</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -8753,7 +8679,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>195</v>
+        <v>186</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -8769,7 +8695,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>196</v>
+        <v>187</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -8784,9 +8710,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>197</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -8794,7 +8718,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -8805,7 +8729,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -8814,7 +8738,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -8826,7 +8750,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>198</v>
+        <v>188</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -8834,7 +8758,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>199</v>
+        <v>189</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -8930,7 +8854,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>200</v>
+        <v>190</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -8973,7 +8897,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -9224,7 +9148,9 @@
       <c r="J2" s="15"/>
     </row>
     <row r="3" spans="1:10" customHeight="1" ht="18">
-      <c r="A3" s="16"/>
+      <c r="A3" s="16" t="s">
+        <v>42</v>
+      </c>
       <c r="B3" s="16"/>
       <c r="C3" s="16"/>
       <c r="D3" s="16"/>
@@ -9274,7 +9200,7 @@
       </c>
       <c r="E7" s="18"/>
       <c r="F7" s="19">
-        <v>20154419</v>
+        <v>20151384</v>
       </c>
       <c r="G7" s="19"/>
     </row>
@@ -9298,7 +9224,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>201</v>
+        <v>191</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -9314,7 +9240,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>202</v>
+        <v>192</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -9329,7 +9255,9 @@
         <v>11</v>
       </c>
       <c r="B12" s="25"/>
-      <c r="C12" s="20"/>
+      <c r="C12" s="20" t="s">
+        <v>193</v>
+      </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
       <c r="F12" s="10"/>
@@ -9343,7 +9271,9 @@
         <v>12</v>
       </c>
       <c r="B13" s="25"/>
-      <c r="C13" s="20"/>
+      <c r="C13" s="20" t="s">
+        <v>194</v>
+      </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
       <c r="F13" s="20"/>
@@ -9357,7 +9287,9 @@
         <v>13</v>
       </c>
       <c r="B14" s="25"/>
-      <c r="C14" s="20"/>
+      <c r="C14" s="20" t="s">
+        <v>195</v>
+      </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
       <c r="F14" s="20"/>
@@ -9378,7 +9310,9 @@
         <v>15</v>
       </c>
       <c r="G15" s="25"/>
-      <c r="H15" s="20"/>
+      <c r="H15" s="20" t="s">
+        <v>69</v>
+      </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
     </row>
@@ -9387,14 +9321,18 @@
         <v>16</v>
       </c>
       <c r="B16" s="25"/>
-      <c r="C16" s="20"/>
+      <c r="C16" s="20" t="s">
+        <v>50</v>
+      </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
       <c r="F16" s="25" t="s">
         <v>17</v>
       </c>
       <c r="G16" s="25"/>
-      <c r="H16" s="20"/>
+      <c r="H16" s="20" t="s">
+        <v>51</v>
+      </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
     </row>
@@ -9404,13 +9342,17 @@
       </c>
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
-      <c r="D17" s="20"/>
+      <c r="D17" s="20" t="s">
+        <v>52</v>
+      </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
         <v>19</v>
       </c>
       <c r="G17" s="25"/>
-      <c r="H17" s="20"/>
+      <c r="H17" s="20" t="s">
+        <v>196</v>
+      </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
     </row>
@@ -9505,7 +9447,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>203</v>
+        <v>197</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -9531,7 +9473,9 @@
       <c r="B27" s="23"/>
       <c r="C27" s="23"/>
       <c r="D27" s="23"/>
-      <c r="E27" s="26"/>
+      <c r="E27" s="26">
+        <v>2014</v>
+      </c>
       <c r="F27" s="26"/>
       <c r="G27" s="23" t="s">
         <v>33</v>
@@ -9545,7 +9489,9 @@
         <v>34</v>
       </c>
       <c r="B28" s="25"/>
-      <c r="C28" s="20"/>
+      <c r="C28" s="20" t="s">
+        <v>198</v>
+      </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
       <c r="F28" s="20"/>
@@ -9847,7 +9793,7 @@
       </c>
       <c r="E7" s="18"/>
       <c r="F7" s="19">
-        <v>20151384</v>
+        <v>20151385</v>
       </c>
       <c r="G7" s="19"/>
     </row>
@@ -9871,7 +9817,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>204</v>
+        <v>199</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -9887,7 +9833,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>205</v>
+        <v>200</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -9903,7 +9849,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>206</v>
+        <v>201</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -9919,7 +9865,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>207</v>
+        <v>202</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -9935,7 +9881,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>208</v>
+        <v>203</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -9950,9 +9896,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>209</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -9960,7 +9904,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -9971,7 +9915,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -9980,7 +9924,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -9992,15 +9936,15 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>109</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
         <v>19</v>
       </c>
       <c r="G17" s="25"/>
-      <c r="H17" s="20" t="s">
-        <v>210</v>
+      <c r="H17" s="20">
+        <v>3573793</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -10096,7 +10040,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>211</v>
+        <v>204</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -10139,7 +10083,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>212</v>
+        <v>205</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -10442,7 +10386,7 @@
       </c>
       <c r="E7" s="18"/>
       <c r="F7" s="19">
-        <v>20151385</v>
+        <v>20151382</v>
       </c>
       <c r="G7" s="19"/>
     </row>
@@ -10466,7 +10410,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>213</v>
+        <v>206</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -10482,7 +10426,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>214</v>
+        <v>207</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -10498,7 +10442,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>215</v>
+        <v>208</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -10514,7 +10458,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>216</v>
+        <v>209</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -10530,7 +10474,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>217</v>
+        <v>210</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -10545,9 +10489,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>218</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -10555,7 +10497,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -10566,7 +10508,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -10575,7 +10517,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -10587,15 +10529,15 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>114</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
         <v>19</v>
       </c>
       <c r="G17" s="25"/>
-      <c r="H17" s="20">
-        <v>3573793</v>
+      <c r="H17" s="20" t="s">
+        <v>211</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -10691,7 +10633,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>219</v>
+        <v>212</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -10734,7 +10676,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>220</v>
+        <v>213</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -11037,7 +10979,7 @@
       </c>
       <c r="E7" s="18"/>
       <c r="F7" s="19">
-        <v>20151382</v>
+        <v>20151376</v>
       </c>
       <c r="G7" s="19"/>
     </row>
@@ -11061,7 +11003,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>221</v>
+        <v>214</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -11077,7 +11019,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>222</v>
+        <v>215</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -11093,7 +11035,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>223</v>
+        <v>216</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -11109,7 +11051,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>224</v>
+        <v>217</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -11125,7 +11067,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>225</v>
+        <v>218</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -11140,9 +11082,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>226</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -11150,7 +11090,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -11161,7 +11101,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -11170,7 +11110,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -11182,7 +11122,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -11190,7 +11130,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>227</v>
+        <v>219</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -11286,7 +11226,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>228</v>
+        <v>220</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -11313,7 +11253,7 @@
       <c r="C27" s="23"/>
       <c r="D27" s="23"/>
       <c r="E27" s="26">
-        <v>2014</v>
+        <v>2008</v>
       </c>
       <c r="F27" s="26"/>
       <c r="G27" s="23" t="s">
@@ -11329,7 +11269,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>229</v>
+        <v>55</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -11632,7 +11572,7 @@
       </c>
       <c r="E7" s="18"/>
       <c r="F7" s="19">
-        <v>20151376</v>
+        <v>20151386</v>
       </c>
       <c r="G7" s="19"/>
     </row>
@@ -11656,7 +11596,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>230</v>
+        <v>221</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -11672,7 +11612,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>231</v>
+        <v>222</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -11688,7 +11628,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>232</v>
+        <v>223</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -11704,7 +11644,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>233</v>
+        <v>224</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -11720,7 +11660,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>234</v>
+        <v>225</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -11735,9 +11675,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>49</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -11745,7 +11683,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>72</v>
+        <v>49</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -11756,7 +11694,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -11765,7 +11703,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -11777,7 +11715,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>109</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -11785,7 +11723,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>235</v>
+        <v>226</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -11881,7 +11819,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>236</v>
+        <v>227</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -11908,7 +11846,7 @@
       <c r="C27" s="23"/>
       <c r="D27" s="23"/>
       <c r="E27" s="26">
-        <v>2008</v>
+        <v>2013</v>
       </c>
       <c r="F27" s="26"/>
       <c r="G27" s="23" t="s">
@@ -11924,7 +11862,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>56</v>
+        <v>72</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -12227,7 +12165,7 @@
       </c>
       <c r="E7" s="18"/>
       <c r="F7" s="19">
-        <v>20151386</v>
+        <v>20151378</v>
       </c>
       <c r="G7" s="19"/>
     </row>
@@ -12251,7 +12189,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>237</v>
+        <v>228</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -12267,7 +12205,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>238</v>
+        <v>229</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -12283,7 +12221,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>239</v>
+        <v>230</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -12299,7 +12237,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>240</v>
+        <v>231</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -12315,7 +12253,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>241</v>
+        <v>232</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -12330,9 +12268,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>128</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -12340,7 +12276,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>50</v>
+        <v>69</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -12351,7 +12287,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -12360,7 +12296,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -12372,7 +12308,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>114</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -12380,7 +12316,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>242</v>
+        <v>233</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -12476,7 +12412,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>243</v>
+        <v>234</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -12519,7 +12455,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>75</v>
+        <v>235</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -12822,7 +12758,7 @@
       </c>
       <c r="E7" s="18"/>
       <c r="F7" s="19">
-        <v>20151378</v>
+        <v>20151374</v>
       </c>
       <c r="G7" s="19"/>
     </row>
@@ -12846,7 +12782,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>244</v>
+        <v>236</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -12862,7 +12798,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>245</v>
+        <v>237</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -12878,7 +12814,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>246</v>
+        <v>238</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -12894,7 +12830,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>247</v>
+        <v>236</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -12910,7 +12846,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>248</v>
+        <v>239</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -12925,9 +12861,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>81</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -12935,7 +12869,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -12946,7 +12880,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -12955,7 +12889,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -12967,7 +12901,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -12975,7 +12909,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>249</v>
+        <v>240</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -13071,7 +13005,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>250</v>
+        <v>241</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -13098,7 +13032,7 @@
       <c r="C27" s="23"/>
       <c r="D27" s="23"/>
       <c r="E27" s="26">
-        <v>2013</v>
+        <v>2014</v>
       </c>
       <c r="F27" s="26"/>
       <c r="G27" s="23" t="s">
@@ -13114,7 +13048,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>251</v>
+        <v>213</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -13417,7 +13351,7 @@
       </c>
       <c r="E7" s="18"/>
       <c r="F7" s="19">
-        <v>20151374</v>
+        <v>20151396</v>
       </c>
       <c r="G7" s="19"/>
     </row>
@@ -13441,7 +13375,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>252</v>
+        <v>242</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -13457,7 +13391,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>253</v>
+        <v>243</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -13473,7 +13407,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>254</v>
+        <v>244</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -13489,7 +13423,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>252</v>
+        <v>245</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -13505,7 +13439,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>255</v>
+        <v>246</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -13520,9 +13454,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>226</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -13530,7 +13462,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>72</v>
+        <v>49</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -13541,7 +13473,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -13550,7 +13482,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -13562,7 +13494,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -13570,7 +13502,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>256</v>
+        <v>247</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -13666,7 +13598,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>257</v>
+        <v>248</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -13693,7 +13625,7 @@
       <c r="C27" s="23"/>
       <c r="D27" s="23"/>
       <c r="E27" s="26">
-        <v>2014</v>
+        <v>2013</v>
       </c>
       <c r="F27" s="26"/>
       <c r="G27" s="23" t="s">
@@ -13709,7 +13641,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>229</v>
+        <v>63</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -14012,7 +13944,7 @@
       </c>
       <c r="E7" s="18"/>
       <c r="F7" s="19">
-        <v>20151396</v>
+        <v>20151370</v>
       </c>
       <c r="G7" s="19"/>
     </row>
@@ -14036,7 +13968,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>258</v>
+        <v>249</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -14052,7 +13984,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>259</v>
+        <v>250</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -14067,9 +13999,7 @@
         <v>11</v>
       </c>
       <c r="B12" s="25"/>
-      <c r="C12" s="20" t="s">
-        <v>260</v>
-      </c>
+      <c r="C12" s="20"/>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
       <c r="F12" s="10"/>
@@ -14083,9 +14013,7 @@
         <v>12</v>
       </c>
       <c r="B13" s="25"/>
-      <c r="C13" s="20" t="s">
-        <v>261</v>
-      </c>
+      <c r="C13" s="20"/>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
       <c r="F13" s="20"/>
@@ -14099,9 +14027,7 @@
         <v>13</v>
       </c>
       <c r="B14" s="25"/>
-      <c r="C14" s="20" t="s">
-        <v>262</v>
-      </c>
+      <c r="C14" s="20"/>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
       <c r="F14" s="20"/>
@@ -14115,18 +14041,14 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>62</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
         <v>15</v>
       </c>
       <c r="G15" s="25"/>
-      <c r="H15" s="20" t="s">
-        <v>50</v>
-      </c>
+      <c r="H15" s="20"/>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
     </row>
@@ -14135,18 +14057,14 @@
         <v>16</v>
       </c>
       <c r="B16" s="25"/>
-      <c r="C16" s="20" t="s">
-        <v>51</v>
-      </c>
+      <c r="C16" s="20"/>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
       <c r="F16" s="25" t="s">
         <v>17</v>
       </c>
       <c r="G16" s="25"/>
-      <c r="H16" s="20" t="s">
-        <v>52</v>
-      </c>
+      <c r="H16" s="20"/>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
     </row>
@@ -14156,17 +14074,13 @@
       </c>
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
-      <c r="D17" s="20" t="s">
-        <v>53</v>
-      </c>
+      <c r="D17" s="20"/>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
         <v>19</v>
       </c>
       <c r="G17" s="25"/>
-      <c r="H17" s="20" t="s">
-        <v>263</v>
-      </c>
+      <c r="H17" s="20"/>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
     </row>
@@ -14261,7 +14175,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>264</v>
+        <v>251</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -14287,9 +14201,7 @@
       <c r="B27" s="23"/>
       <c r="C27" s="23"/>
       <c r="D27" s="23"/>
-      <c r="E27" s="26">
-        <v>2013</v>
-      </c>
+      <c r="E27" s="26"/>
       <c r="F27" s="26"/>
       <c r="G27" s="23" t="s">
         <v>33</v>
@@ -14303,9 +14215,7 @@
         <v>34</v>
       </c>
       <c r="B28" s="25"/>
-      <c r="C28" s="20" t="s">
-        <v>65</v>
-      </c>
+      <c r="C28" s="20"/>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
       <c r="F28" s="20"/>
@@ -14631,7 +14541,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -14647,7 +14557,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -14663,7 +14573,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -14679,7 +14589,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -14695,7 +14605,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -14710,9 +14620,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>62</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -14720,7 +14628,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -14731,7 +14639,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -14740,7 +14648,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -14752,7 +14660,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -14760,7 +14668,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -14856,7 +14764,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -14899,7 +14807,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -15202,7 +15110,7 @@
       </c>
       <c r="E7" s="18"/>
       <c r="F7" s="19">
-        <v>20151370</v>
+        <v>20151380</v>
       </c>
       <c r="G7" s="19"/>
     </row>
@@ -15226,7 +15134,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>265</v>
+        <v>252</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -15242,7 +15150,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>266</v>
+        <v>253</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -15257,7 +15165,9 @@
         <v>11</v>
       </c>
       <c r="B12" s="25"/>
-      <c r="C12" s="20"/>
+      <c r="C12" s="20" t="s">
+        <v>254</v>
+      </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
       <c r="F12" s="10"/>
@@ -15271,7 +15181,9 @@
         <v>12</v>
       </c>
       <c r="B13" s="25"/>
-      <c r="C13" s="20"/>
+      <c r="C13" s="20" t="s">
+        <v>255</v>
+      </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
       <c r="F13" s="20"/>
@@ -15285,7 +15197,9 @@
         <v>13</v>
       </c>
       <c r="B14" s="25"/>
-      <c r="C14" s="20"/>
+      <c r="C14" s="20" t="s">
+        <v>256</v>
+      </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
       <c r="F14" s="20"/>
@@ -15306,7 +15220,9 @@
         <v>15</v>
       </c>
       <c r="G15" s="25"/>
-      <c r="H15" s="20"/>
+      <c r="H15" s="20" t="s">
+        <v>69</v>
+      </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
     </row>
@@ -15315,14 +15231,18 @@
         <v>16</v>
       </c>
       <c r="B16" s="25"/>
-      <c r="C16" s="20"/>
+      <c r="C16" s="20" t="s">
+        <v>50</v>
+      </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
       <c r="F16" s="25" t="s">
         <v>17</v>
       </c>
       <c r="G16" s="25"/>
-      <c r="H16" s="20"/>
+      <c r="H16" s="20" t="s">
+        <v>51</v>
+      </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
     </row>
@@ -15332,13 +15252,17 @@
       </c>
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
-      <c r="D17" s="20"/>
+      <c r="D17" s="20" t="s">
+        <v>52</v>
+      </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
         <v>19</v>
       </c>
       <c r="G17" s="25"/>
-      <c r="H17" s="20"/>
+      <c r="H17" s="20" t="s">
+        <v>257</v>
+      </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
     </row>
@@ -15433,7 +15357,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>203</v>
+        <v>258</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -15459,7 +15383,9 @@
       <c r="B27" s="23"/>
       <c r="C27" s="23"/>
       <c r="D27" s="23"/>
-      <c r="E27" s="26"/>
+      <c r="E27" s="26">
+        <v>2014</v>
+      </c>
       <c r="F27" s="26"/>
       <c r="G27" s="23" t="s">
         <v>33</v>
@@ -15473,7 +15399,9 @@
         <v>34</v>
       </c>
       <c r="B28" s="25"/>
-      <c r="C28" s="20"/>
+      <c r="C28" s="20" t="s">
+        <v>259</v>
+      </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
       <c r="F28" s="20"/>
@@ -15775,7 +15703,7 @@
       </c>
       <c r="E7" s="18"/>
       <c r="F7" s="19">
-        <v>20151380</v>
+        <v>20151379</v>
       </c>
       <c r="G7" s="19"/>
     </row>
@@ -15799,7 +15727,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>267</v>
+        <v>260</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -15815,7 +15743,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>268</v>
+        <v>261</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -15831,7 +15759,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>269</v>
+        <v>262</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -15847,7 +15775,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>270</v>
+        <v>263</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -15863,7 +15791,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>271</v>
+        <v>264</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -15878,9 +15806,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>272</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -15888,7 +15814,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>72</v>
+        <v>49</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -15899,7 +15825,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -15908,7 +15834,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -15920,7 +15846,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -15928,7 +15854,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>273</v>
+        <v>265</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -16024,7 +15950,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>274</v>
+        <v>266</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -16067,7 +15993,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>275</v>
+        <v>63</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -16270,601 +16196,6 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:J37"/>
-  <sheetViews>
-    <sheetView tabSelected="0" workbookViewId="0" zoomScale="96" view="pageBreakPreview" showGridLines="false" showRowColHeaders="1">
-      <selection activeCell="H24" sqref="H24"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
-  <cols>
-    <col min="1" max="1" width="11.6640625" customWidth="true" style="0"/>
-    <col min="2" max="2" width="7.77734375" customWidth="true" style="0"/>
-    <col min="3" max="3" width="8.33203125" customWidth="true" style="0"/>
-    <col min="4" max="4" width="10.5546875" customWidth="true" style="0"/>
-    <col min="5" max="5" width="10.6640625" customWidth="true" style="0"/>
-    <col min="6" max="6" width="10.109375" customWidth="true" style="0"/>
-    <col min="8" max="8" width="6.77734375" customWidth="true" style="0"/>
-    <col min="9" max="9" width="8" customWidth="true" style="0"/>
-    <col min="10" max="10" width="8.77734375" customWidth="true" style="0"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:10" customHeight="1" ht="23.4">
-      <c r="A1" s="15" t="s">
-        <v>41</v>
-      </c>
-      <c r="B1" s="15"/>
-      <c r="C1" s="15"/>
-      <c r="D1" s="15"/>
-      <c r="E1" s="15"/>
-      <c r="F1" s="15"/>
-      <c r="G1" s="15"/>
-      <c r="H1" s="15"/>
-      <c r="I1" s="15"/>
-      <c r="J1" s="15"/>
-    </row>
-    <row r="2" spans="1:10" customHeight="1" ht="23.4">
-      <c r="A2" s="15" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" s="15"/>
-      <c r="C2" s="15"/>
-      <c r="D2" s="15"/>
-      <c r="E2" s="15"/>
-      <c r="F2" s="15"/>
-      <c r="G2" s="15"/>
-      <c r="H2" s="15"/>
-      <c r="I2" s="15"/>
-      <c r="J2" s="15"/>
-    </row>
-    <row r="3" spans="1:10" customHeight="1" ht="18">
-      <c r="A3" s="16" t="s">
-        <v>42</v>
-      </c>
-      <c r="B3" s="16"/>
-      <c r="C3" s="16"/>
-      <c r="D3" s="16"/>
-      <c r="E3" s="16"/>
-      <c r="F3" s="16"/>
-      <c r="G3" s="16"/>
-      <c r="H3" s="16"/>
-      <c r="I3" s="16"/>
-      <c r="J3" s="16"/>
-    </row>
-    <row r="4" spans="1:10" customHeight="1" ht="15.6">
-      <c r="A4" s="17" t="s">
-        <v>43</v>
-      </c>
-      <c r="B4" s="17"/>
-      <c r="C4" s="17"/>
-      <c r="D4" s="17"/>
-      <c r="E4" s="17"/>
-      <c r="F4" s="17"/>
-      <c r="G4" s="17"/>
-      <c r="H4" s="17"/>
-      <c r="I4" s="17"/>
-      <c r="J4" s="17"/>
-    </row>
-    <row r="5" spans="1:10" customHeight="1" ht="15.6">
-      <c r="A5" s="1"/>
-      <c r="B5" s="1"/>
-      <c r="C5" s="1"/>
-      <c r="D5" s="1"/>
-      <c r="E5" s="1"/>
-      <c r="F5" s="1"/>
-      <c r="G5" s="1"/>
-      <c r="H5" s="1"/>
-      <c r="I5" s="1"/>
-      <c r="J5" s="1"/>
-    </row>
-    <row r="7" spans="1:10" customHeight="1" ht="15.6">
-      <c r="A7" s="12" t="s">
-        <v>4</v>
-      </c>
-      <c r="B7" s="19">
-        <v>2015</v>
-      </c>
-      <c r="C7" s="19"/>
-      <c r="D7" s="18" t="s">
-        <v>5</v>
-      </c>
-      <c r="E7" s="18"/>
-      <c r="F7" s="19">
-        <v>20151379</v>
-      </c>
-      <c r="G7" s="19"/>
-    </row>
-    <row r="9" spans="1:10" customHeight="1" ht="18.6">
-      <c r="A9" s="14" t="s">
-        <v>6</v>
-      </c>
-      <c r="B9" s="14"/>
-      <c r="C9" s="14"/>
-      <c r="D9" s="14"/>
-      <c r="E9" s="14"/>
-      <c r="F9" s="14"/>
-      <c r="G9" s="14"/>
-      <c r="H9" s="14"/>
-      <c r="I9" s="14"/>
-      <c r="J9" s="14"/>
-    </row>
-    <row r="10" spans="1:10" customHeight="1" ht="15.6">
-      <c r="A10" s="22" t="s">
-        <v>7</v>
-      </c>
-      <c r="B10" s="23"/>
-      <c r="C10" s="26" t="s">
-        <v>276</v>
-      </c>
-      <c r="D10" s="26"/>
-      <c r="E10" s="26"/>
-      <c r="F10" s="8"/>
-      <c r="G10" s="8"/>
-      <c r="H10" s="8"/>
-      <c r="I10" s="8"/>
-      <c r="J10" s="9"/>
-    </row>
-    <row r="11" spans="1:10" customHeight="1" ht="15.6">
-      <c r="A11" s="24" t="s">
-        <v>9</v>
-      </c>
-      <c r="B11" s="25"/>
-      <c r="C11" s="20" t="s">
-        <v>277</v>
-      </c>
-      <c r="D11" s="20"/>
-      <c r="E11" s="20"/>
-      <c r="F11" s="20"/>
-      <c r="G11" s="20"/>
-      <c r="H11" s="10"/>
-      <c r="I11" s="10"/>
-      <c r="J11" s="11"/>
-    </row>
-    <row r="12" spans="1:10" customHeight="1" ht="15.6">
-      <c r="A12" s="24" t="s">
-        <v>11</v>
-      </c>
-      <c r="B12" s="25"/>
-      <c r="C12" s="20" t="s">
-        <v>278</v>
-      </c>
-      <c r="D12" s="20"/>
-      <c r="E12" s="20"/>
-      <c r="F12" s="10"/>
-      <c r="G12" s="10"/>
-      <c r="H12" s="10"/>
-      <c r="I12" s="10"/>
-      <c r="J12" s="11"/>
-    </row>
-    <row r="13" spans="1:10" customHeight="1" ht="15.6">
-      <c r="A13" s="24" t="s">
-        <v>12</v>
-      </c>
-      <c r="B13" s="25"/>
-      <c r="C13" s="20" t="s">
-        <v>279</v>
-      </c>
-      <c r="D13" s="20"/>
-      <c r="E13" s="20"/>
-      <c r="F13" s="20"/>
-      <c r="G13" s="20"/>
-      <c r="H13" s="10"/>
-      <c r="I13" s="10"/>
-      <c r="J13" s="11"/>
-    </row>
-    <row r="14" spans="1:10" customHeight="1" ht="15.6">
-      <c r="A14" s="24" t="s">
-        <v>13</v>
-      </c>
-      <c r="B14" s="25"/>
-      <c r="C14" s="20" t="s">
-        <v>280</v>
-      </c>
-      <c r="D14" s="20"/>
-      <c r="E14" s="20"/>
-      <c r="F14" s="20"/>
-      <c r="G14" s="20"/>
-      <c r="H14" s="10"/>
-      <c r="I14" s="10"/>
-      <c r="J14" s="11"/>
-    </row>
-    <row r="15" spans="1:10" customHeight="1" ht="15.6">
-      <c r="A15" s="24" t="s">
-        <v>14</v>
-      </c>
-      <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>281</v>
-      </c>
-      <c r="D15" s="20"/>
-      <c r="E15" s="20"/>
-      <c r="F15" s="25" t="s">
-        <v>15</v>
-      </c>
-      <c r="G15" s="25"/>
-      <c r="H15" s="20" t="s">
-        <v>50</v>
-      </c>
-      <c r="I15" s="20"/>
-      <c r="J15" s="38"/>
-    </row>
-    <row r="16" spans="1:10" customHeight="1" ht="15.6">
-      <c r="A16" s="24" t="s">
-        <v>16</v>
-      </c>
-      <c r="B16" s="25"/>
-      <c r="C16" s="20" t="s">
-        <v>51</v>
-      </c>
-      <c r="D16" s="20"/>
-      <c r="E16" s="20"/>
-      <c r="F16" s="25" t="s">
-        <v>17</v>
-      </c>
-      <c r="G16" s="25"/>
-      <c r="H16" s="20" t="s">
-        <v>52</v>
-      </c>
-      <c r="I16" s="20"/>
-      <c r="J16" s="38"/>
-    </row>
-    <row r="17" spans="1:10" customHeight="1" ht="15.6">
-      <c r="A17" s="24" t="s">
-        <v>18</v>
-      </c>
-      <c r="B17" s="25"/>
-      <c r="C17" s="25"/>
-      <c r="D17" s="20" t="s">
-        <v>53</v>
-      </c>
-      <c r="E17" s="20"/>
-      <c r="F17" s="25" t="s">
-        <v>19</v>
-      </c>
-      <c r="G17" s="25"/>
-      <c r="H17" s="20" t="s">
-        <v>282</v>
-      </c>
-      <c r="I17" s="20"/>
-      <c r="J17" s="38"/>
-    </row>
-    <row r="18" spans="1:10" customHeight="1" ht="16.2">
-      <c r="A18" s="40" t="s">
-        <v>20</v>
-      </c>
-      <c r="B18" s="37"/>
-      <c r="C18" s="21"/>
-      <c r="D18" s="21"/>
-      <c r="E18" s="21"/>
-      <c r="F18" s="37" t="s">
-        <v>21</v>
-      </c>
-      <c r="G18" s="37"/>
-      <c r="H18" s="21"/>
-      <c r="I18" s="21"/>
-      <c r="J18" s="39"/>
-    </row>
-    <row r="20" spans="1:10" customHeight="1" ht="18.6">
-      <c r="A20" s="36" t="s">
-        <v>22</v>
-      </c>
-      <c r="B20" s="36"/>
-      <c r="C20" s="36"/>
-      <c r="D20" s="36"/>
-      <c r="E20" s="36"/>
-      <c r="F20" s="36"/>
-      <c r="G20" s="36"/>
-      <c r="H20" s="36"/>
-      <c r="I20" s="36"/>
-      <c r="J20" s="36"/>
-    </row>
-    <row r="21" spans="1:10" customHeight="1" ht="15.6">
-      <c r="A21" s="22" t="s">
-        <v>23</v>
-      </c>
-      <c r="B21" s="23"/>
-      <c r="C21" s="26"/>
-      <c r="D21" s="26"/>
-      <c r="E21" s="26"/>
-      <c r="F21" s="23" t="s">
-        <v>24</v>
-      </c>
-      <c r="G21" s="23"/>
-      <c r="H21" s="26"/>
-      <c r="I21" s="26"/>
-      <c r="J21" s="41"/>
-    </row>
-    <row r="22" spans="1:10" customHeight="1" ht="15.6">
-      <c r="A22" s="24" t="s">
-        <v>25</v>
-      </c>
-      <c r="B22" s="25"/>
-      <c r="C22" s="20"/>
-      <c r="D22" s="20"/>
-      <c r="E22" s="20"/>
-      <c r="F22" s="25" t="s">
-        <v>26</v>
-      </c>
-      <c r="G22" s="25"/>
-      <c r="H22" s="20"/>
-      <c r="I22" s="20"/>
-      <c r="J22" s="38"/>
-    </row>
-    <row r="23" spans="1:10" customHeight="1" ht="15.6">
-      <c r="A23" s="24" t="s">
-        <v>27</v>
-      </c>
-      <c r="B23" s="25"/>
-      <c r="C23" s="20"/>
-      <c r="D23" s="20"/>
-      <c r="E23" s="20"/>
-      <c r="F23" s="25" t="s">
-        <v>28</v>
-      </c>
-      <c r="G23" s="25"/>
-      <c r="H23" s="20"/>
-      <c r="I23" s="20"/>
-      <c r="J23" s="38"/>
-    </row>
-    <row r="24" spans="1:10" customHeight="1" ht="16.2">
-      <c r="A24" s="40" t="s">
-        <v>29</v>
-      </c>
-      <c r="B24" s="37"/>
-      <c r="C24" s="21"/>
-      <c r="D24" s="21"/>
-      <c r="E24" s="21"/>
-      <c r="F24" s="37" t="s">
-        <v>30</v>
-      </c>
-      <c r="G24" s="37"/>
-      <c r="H24" s="42" t="s">
-        <v>283</v>
-      </c>
-      <c r="I24" s="21"/>
-      <c r="J24" s="39"/>
-    </row>
-    <row r="26" spans="1:10" customHeight="1" ht="18.6">
-      <c r="A26" s="36" t="s">
-        <v>31</v>
-      </c>
-      <c r="B26" s="36"/>
-      <c r="C26" s="36"/>
-      <c r="D26" s="36"/>
-      <c r="E26" s="36"/>
-      <c r="F26" s="36"/>
-      <c r="G26" s="36"/>
-      <c r="H26" s="36"/>
-      <c r="I26" s="36"/>
-      <c r="J26" s="36"/>
-    </row>
-    <row r="27" spans="1:10" customHeight="1" ht="15.6">
-      <c r="A27" s="22" t="s">
-        <v>32</v>
-      </c>
-      <c r="B27" s="23"/>
-      <c r="C27" s="23"/>
-      <c r="D27" s="23"/>
-      <c r="E27" s="26">
-        <v>2014</v>
-      </c>
-      <c r="F27" s="26"/>
-      <c r="G27" s="23" t="s">
-        <v>33</v>
-      </c>
-      <c r="H27" s="23"/>
-      <c r="I27" s="26"/>
-      <c r="J27" s="41"/>
-    </row>
-    <row r="28" spans="1:10" customHeight="1" ht="15.6">
-      <c r="A28" s="24" t="s">
-        <v>34</v>
-      </c>
-      <c r="B28" s="25"/>
-      <c r="C28" s="20" t="s">
-        <v>65</v>
-      </c>
-      <c r="D28" s="20"/>
-      <c r="E28" s="20"/>
-      <c r="F28" s="20"/>
-      <c r="G28" s="20"/>
-      <c r="H28" s="20"/>
-      <c r="I28" s="20"/>
-      <c r="J28" s="38"/>
-    </row>
-    <row r="29" spans="1:10" customHeight="1" ht="16.2">
-      <c r="A29" s="13" t="s">
-        <v>35</v>
-      </c>
-      <c r="B29" s="21"/>
-      <c r="C29" s="21"/>
-      <c r="D29" s="21"/>
-      <c r="E29" s="21"/>
-      <c r="F29" s="21"/>
-      <c r="G29" s="21"/>
-      <c r="H29" s="21"/>
-      <c r="I29" s="21"/>
-      <c r="J29" s="39"/>
-    </row>
-    <row r="31" spans="1:10" customHeight="1" ht="18.6">
-      <c r="A31" s="36" t="s">
-        <v>36</v>
-      </c>
-      <c r="B31" s="36"/>
-      <c r="C31" s="36"/>
-      <c r="D31" s="36"/>
-      <c r="E31" s="36"/>
-      <c r="F31" s="36"/>
-      <c r="G31" s="36"/>
-      <c r="H31" s="36"/>
-      <c r="I31" s="36"/>
-      <c r="J31" s="36"/>
-    </row>
-    <row r="32" spans="1:10" customHeight="1" ht="15.6">
-      <c r="A32" s="27" t="s">
-        <v>37</v>
-      </c>
-      <c r="B32" s="28"/>
-      <c r="C32" s="28"/>
-      <c r="D32" s="28"/>
-      <c r="E32" s="28"/>
-      <c r="F32" s="28"/>
-      <c r="G32" s="28"/>
-      <c r="H32" s="28"/>
-      <c r="I32" s="28"/>
-      <c r="J32" s="29"/>
-    </row>
-    <row r="33" spans="1:10">
-      <c r="A33" s="30"/>
-      <c r="B33" s="31"/>
-      <c r="C33" s="31"/>
-      <c r="D33" s="31"/>
-      <c r="E33" s="31"/>
-      <c r="F33" s="31"/>
-      <c r="G33" s="31"/>
-      <c r="H33" s="31"/>
-      <c r="I33" s="31"/>
-      <c r="J33" s="32"/>
-    </row>
-    <row r="34" spans="1:10">
-      <c r="A34" s="33" t="s">
-        <v>39</v>
-      </c>
-      <c r="B34" s="34"/>
-      <c r="C34" s="34"/>
-      <c r="D34" s="34"/>
-      <c r="E34" s="34"/>
-      <c r="F34" s="34"/>
-      <c r="G34" s="34"/>
-      <c r="H34" s="34"/>
-      <c r="I34" s="34"/>
-      <c r="J34" s="35"/>
-    </row>
-    <row r="35" spans="1:10">
-      <c r="A35" s="2"/>
-      <c r="B35" s="3"/>
-      <c r="C35" s="3"/>
-      <c r="D35" s="3"/>
-      <c r="E35" s="3"/>
-      <c r="F35" s="3"/>
-      <c r="G35" s="3"/>
-      <c r="H35" s="3"/>
-      <c r="I35" s="3"/>
-      <c r="J35" s="4"/>
-    </row>
-    <row r="36" spans="1:10">
-      <c r="A36" s="30" t="s">
-        <v>40</v>
-      </c>
-      <c r="B36" s="31"/>
-      <c r="C36" s="31"/>
-      <c r="D36" s="31"/>
-      <c r="E36" s="31"/>
-      <c r="F36" s="31"/>
-      <c r="G36" s="31"/>
-      <c r="H36" s="31"/>
-      <c r="I36" s="31"/>
-      <c r="J36" s="32"/>
-    </row>
-    <row r="37" spans="1:10" customHeight="1" ht="15">
-      <c r="A37" s="5"/>
-      <c r="B37" s="6"/>
-      <c r="C37" s="6"/>
-      <c r="D37" s="6"/>
-      <c r="E37" s="6"/>
-      <c r="F37" s="6"/>
-      <c r="G37" s="6"/>
-      <c r="H37" s="6"/>
-      <c r="I37" s="6"/>
-      <c r="J37" s="7"/>
-    </row>
-  </sheetData>
-  <sheetProtection password="8053" sheet="true" objects="true" scenarios="false" formatCells="true" formatColumns="false" formatRows="false" insertColumns="false" insertRows="true" insertHyperlinks="false" deleteColumns="false" deleteRows="false" selectLockedCells="false" sort="true" autoFilter="false" pivotTables="false" selectUnlockedCells="false"/>
-  <mergeCells>
-    <mergeCell ref="A36:J36"/>
-    <mergeCell ref="A27:D27"/>
-    <mergeCell ref="A21:B21"/>
-    <mergeCell ref="A22:B22"/>
-    <mergeCell ref="A23:B23"/>
-    <mergeCell ref="A24:B24"/>
-    <mergeCell ref="F21:G21"/>
-    <mergeCell ref="F22:G22"/>
-    <mergeCell ref="F23:G23"/>
-    <mergeCell ref="F24:G24"/>
-    <mergeCell ref="C21:E21"/>
-    <mergeCell ref="C22:E22"/>
-    <mergeCell ref="C23:E23"/>
-    <mergeCell ref="C24:E24"/>
-    <mergeCell ref="H21:J21"/>
-    <mergeCell ref="H22:J22"/>
-    <mergeCell ref="A26:J26"/>
-    <mergeCell ref="A31:J31"/>
-    <mergeCell ref="E27:F27"/>
-    <mergeCell ref="A28:B28"/>
-    <mergeCell ref="C28:J28"/>
-    <mergeCell ref="B29:J29"/>
-    <mergeCell ref="G27:H27"/>
-    <mergeCell ref="I27:J27"/>
-    <mergeCell ref="H23:J23"/>
-    <mergeCell ref="H24:J24"/>
-    <mergeCell ref="A32:J32"/>
-    <mergeCell ref="A33:J33"/>
-    <mergeCell ref="A34:J34"/>
-    <mergeCell ref="A20:J20"/>
-    <mergeCell ref="F15:G15"/>
-    <mergeCell ref="F16:G16"/>
-    <mergeCell ref="F17:G17"/>
-    <mergeCell ref="F18:G18"/>
-    <mergeCell ref="H15:J15"/>
-    <mergeCell ref="H16:J16"/>
-    <mergeCell ref="H17:J17"/>
-    <mergeCell ref="H18:J18"/>
-    <mergeCell ref="A15:B15"/>
-    <mergeCell ref="A16:B16"/>
-    <mergeCell ref="A17:C17"/>
-    <mergeCell ref="A18:B18"/>
-    <mergeCell ref="C15:E15"/>
-    <mergeCell ref="C16:E16"/>
-    <mergeCell ref="D17:E17"/>
-    <mergeCell ref="C18:E18"/>
-    <mergeCell ref="A10:B10"/>
-    <mergeCell ref="A11:B11"/>
-    <mergeCell ref="A12:B12"/>
-    <mergeCell ref="A13:B13"/>
-    <mergeCell ref="A14:B14"/>
-    <mergeCell ref="C10:E10"/>
-    <mergeCell ref="C11:G11"/>
-    <mergeCell ref="C12:E12"/>
-    <mergeCell ref="C13:G13"/>
-    <mergeCell ref="C14:G14"/>
-    <mergeCell ref="A9:J9"/>
-    <mergeCell ref="A1:J1"/>
-    <mergeCell ref="A2:J2"/>
-    <mergeCell ref="A3:J3"/>
-    <mergeCell ref="A4:J4"/>
-    <mergeCell ref="D7:E7"/>
-    <mergeCell ref="F7:G7"/>
-    <mergeCell ref="B7:C7"/>
-  </mergeCells>
-  <printOptions gridLines="false" gridLinesSet="true"/>
-  <pageMargins left="0.475" right="0.5583333333333333" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" scale="100" fitToHeight="1" fitToWidth="1"/>
-  <headerFooter differentOddEven="false" differentFirst="false" scaleWithDoc="true" alignWithMargins="true">
-    <oddHeader/>
-    <oddFooter/>
-    <evenHeader/>
-    <evenFooter/>
-    <firstHeader/>
-    <firstFooter/>
-  </headerFooter>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet33.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xml:space="preserve">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-  </sheetPr>
   <dimension ref="A1:A1"/>
   <sheetViews>
     <sheetView tabSelected="0" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
@@ -16888,7 +16219,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet34.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet33.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xml:space="preserve">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -17045,7 +16376,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -17061,7 +16392,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -17077,7 +16408,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -17093,7 +16424,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -17109,7 +16440,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -17124,9 +16455,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>71</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -17134,7 +16463,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -17145,7 +16474,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -17154,7 +16483,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -17166,7 +16495,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -17174,7 +16503,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -17270,7 +16599,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -17313,7 +16642,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -17640,7 +16969,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -17656,7 +16985,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -17672,7 +17001,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -17688,7 +17017,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -17704,7 +17033,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -17719,9 +17048,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>81</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -17729,7 +17056,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -17740,7 +17067,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -17749,7 +17076,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -17761,7 +17088,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -17769,7 +17096,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -17865,7 +17192,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -17908,7 +17235,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -18235,7 +17562,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -18251,7 +17578,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -18267,7 +17594,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -18283,7 +17610,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -18299,7 +17626,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -18314,9 +17641,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>49</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -18324,7 +17649,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -18335,7 +17660,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -18344,7 +17669,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -18356,7 +17681,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -18364,7 +17689,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -18460,7 +17785,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -18503,7 +17828,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -18830,7 +18155,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -18846,7 +18171,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -18862,7 +18187,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -18878,7 +18203,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -18894,7 +18219,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -18909,9 +18234,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>98</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -18919,7 +18242,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -18930,7 +18253,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -18939,7 +18262,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -18951,7 +18274,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -18959,7 +18282,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -19055,7 +18378,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -19098,7 +18421,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -19425,7 +18748,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -19441,7 +18764,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -19457,7 +18780,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -19473,7 +18796,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -19489,7 +18812,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -19504,9 +18827,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>62</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -19514,7 +18835,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -19525,7 +18846,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -19534,7 +18855,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -19546,7 +18867,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -19554,7 +18875,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -19650,7 +18971,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -19693,7 +19014,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -20020,7 +19341,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -20036,7 +19357,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -20052,7 +19373,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -20068,7 +19389,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>113</v>
+        <v>108</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -20097,9 +19418,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>81</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -20107,7 +19426,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -20118,7 +19437,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -20127,7 +19446,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -20139,7 +19458,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -20243,7 +19562,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -20286,7 +19605,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
